--- a/excel/hotel.xlsx
+++ b/excel/hotel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dinaspariwisatanew\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B791B3-5588-4FE2-A67A-6B97F2D8F608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF8343F-2051-4214-A0B8-72B84183D623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3760" windowWidth="14400" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="840" windowWidth="14400" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hotel" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
